--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD19D8-0C85-462B-A282-A6F2D5F5462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771FDCDF-84BE-404A-BA76-FA1F6D79C430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒蝉鸣泣之时-解 （24）-5</t>
+    <t>寒蝉鸣泣之时-解 （24）-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771FDCDF-84BE-404A-BA76-FA1F6D79C430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A469C1-4BCB-418B-9D24-622551A73903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒蝉鸣泣之时-解 （24）-7</t>
+    <t>寒蝉鸣泣之时-解 （24）-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A469C1-4BCB-418B-9D24-622551A73903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA7E53-611E-40F7-A1C3-B1E93E4FF872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2770" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青之箱 -18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牌得主  -9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏人生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,7 +207,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒蝉鸣泣之时-解 （24）-16</t>
+    <t>青之箱 -23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒蝉鸣泣之时-解 （24）-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌得主  -10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
@@ -718,12 +718,12 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,15 +756,15 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA7E53-611E-40F7-A1C3-B1E93E4FF872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2B42DF-7F06-4F65-992C-8BE43C53FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2770" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>凉宫</t>
   </si>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四月是你的谎言（22）24-11-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地狱少女（26+26+26+12） -26-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,18 +187,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒蝉鸣泣之时 （26） -26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏人生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒蝉鸣泣之时-猫杀篇 （1） -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哎咕岛消失的舔甜歌姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,11 +199,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒蝉鸣泣之时-解 （24）-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金牌得主  -10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒蝉鸣泣之时-礼 （5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想成为魔法少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒蝉鸣泣之时 （26） -26  | 25-03-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒蝉鸣泣之时-猫杀篇 （1）-1  |  25-03-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒蝉鸣泣之时-解 （24）-24  |  25-03-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月是你的谎言（22）|  24-11-22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,224 +585,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="H27" t="s">
         <v>48</v>
       </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2B42DF-7F06-4F65-992C-8BE43C53FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB05A6-7E8E-4FC9-B9A0-9F52DB0467EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>凉宫</t>
   </si>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>四月是你的谎言（22）|  24-11-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法少女小圆 （13）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +592,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -724,6 +728,9 @@
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB05A6-7E8E-4FC9-B9A0-9F52DB0467EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90252309-2F02-4314-AA7F-9C4A3D364348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法少女小圆 （13）</t>
+    <t>魔法少女小圆 （12）-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +592,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90252309-2F02-4314-AA7F-9C4A3D364348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A68C1-D6D2-4506-A9E8-0F6AA6505920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法少女小圆 （12）-3</t>
+    <t>魔法少女小圆 （12）-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +592,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A68C1-D6D2-4506-A9E8-0F6AA6505920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83652A8-E44A-4356-83C9-23DF7362A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8410" yWindow="4510" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>凉宫</t>
   </si>
@@ -227,7 +227,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法少女小圆 （12）-4</t>
+    <t>魔法少女小圆 剧场版 叛逆的物语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法少女小圆 （12）-12  | 25-03-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD （24）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD AFTER STORY （25）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,14 +603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="39.4140625" customWidth="1"/>
     <col min="3" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
@@ -728,14 +740,17 @@
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -747,7 +762,15 @@
         <v>47</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83652A8-E44A-4356-83C9-23DF7362A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4C66A5-B38A-43AC-89ED-EB48696BD9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8410" yWindow="4510" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,11 +235,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CLANNAD AFTER STORY （25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD （24） -7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +604,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -763,13 +763,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>55</v>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4C66A5-B38A-43AC-89ED-EB48696BD9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDDB3F3-6074-4908-B36A-426EC3676F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="2770" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24） -7</t>
+    <t>CLANNAD （24） -10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +604,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDDB3F3-6074-4908-B36A-426EC3676F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D88827-9ADC-43AF-9226-843FF3B2B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="2770" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24） -10</t>
+    <t>CLANNAD （24） -11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +604,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -748,7 +748,7 @@
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D88827-9ADC-43AF-9226-843FF3B2B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261A731-C9D6-49D7-8D59-7BE5CD277E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2770" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>凉宫</t>
   </si>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青之箱 -23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金牌得主  -10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,18 @@
   </si>
   <si>
     <t>CLANNAD （24） -11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青之箱 -24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻壳机动队 1995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻壳机动队 无罪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +612,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -684,7 +692,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -700,6 +711,9 @@
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -738,38 +752,38 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -803,15 +817,15 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261A731-C9D6-49D7-8D59-7BE5CD277E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4638D756-E21F-4835-8488-D8F092868F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金牌得主  -10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寒蝉鸣泣之时-礼 （5）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,11 +239,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻壳机动队 1995</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻壳机动队 无罪</t>
+    <t>攻壳机动队 1995  | 25-03-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻壳机动队 无罪  | 25-03-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌得主  -11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -692,10 +692,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -711,8 +711,8 @@
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -752,38 +752,38 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -817,15 +817,15 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4638D756-E21F-4835-8488-D8F092868F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693A766-6213-4218-A8DA-59B3368224D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24） -11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青之箱 -24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +244,10 @@
   </si>
   <si>
     <t>金牌得主  -11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD （24） -13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -712,7 +712,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -817,12 +817,12 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693A766-6213-4218-A8DA-59B3368224D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA78273D-46F4-4358-AD0F-451F9BA5AAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8980" yWindow="3100" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>凉宫</t>
   </si>
@@ -247,7 +247,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24） -13</t>
+    <t>心灵想要大声呼喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD （24） -15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,6 +729,9 @@
       <c r="A10" t="s">
         <v>41</v>
       </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" t="s">
         <v>7</v>
       </c>
@@ -778,7 +785,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA78273D-46F4-4358-AD0F-451F9BA5AAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF6AC3-BBDF-497B-B730-2800221A6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="3100" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="2950" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24） -15</t>
+    <t>CLANNAD （24） -17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF6AC3-BBDF-497B-B730-2800221A6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F377228-29A3-46A1-93F0-8F3C5DBEB81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="2950" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>凉宫</t>
   </si>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青之箱 -24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻壳机动队 1995  | 25-03-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,15 +239,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金牌得主  -11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>心灵想要大声呼喊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24） -17</t>
+    <t>CLANNAD （24） -18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌得主  -12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青之箱 -25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海兽之子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -627,7 +635,7 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -641,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -654,8 +662,11 @@
       <c r="J4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -665,8 +676,11 @@
       <c r="H5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -680,7 +694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -694,12 +708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -711,12 +725,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -725,12 +739,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -739,12 +753,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -752,12 +766,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -765,7 +779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -785,7 +799,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -823,13 +837,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>54</v>
+      <c r="A26" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F377228-29A3-46A1-93F0-8F3C5DBEB81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E094D-3728-4528-9E89-9F8FBF7B2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2950" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>凉宫</t>
   </si>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻壳机动队 1995  | 25-03-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD （24） -18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金牌得主  -12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +252,48 @@
   </si>
   <si>
     <t>海兽之子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元气少女缘结神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD （24） -24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未闻花名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉撒路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散华礼弥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天才麻将少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进击的巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光死去的夏天</t>
+  </si>
+  <si>
+    <t>新番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
+  </si>
+  <si>
+    <t>CLANNAD AFTER STORY （25） -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +331,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -335,10 +375,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -621,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -635,7 +678,7 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -649,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -663,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -677,10 +720,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -694,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -708,12 +751,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -725,12 +768,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -739,12 +782,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -753,69 +796,107 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>53</v>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -823,12 +904,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -836,25 +917,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E094D-3728-4528-9E89-9F8FBF7B2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F17A19-FD5B-402B-A8DF-35AAFD4AB40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
     <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25） -1</t>
+    <t>CLANNAD AFTER STORY （25） -4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F17A19-FD5B-402B-A8DF-35AAFD4AB40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02752F9F-0CE3-42A7-AE7A-B799A1714170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="4030" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
     <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25） -4</t>
+    <t>CLANNAD AFTER STORY （25） -8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02752F9F-0CE3-42A7-AE7A-B799A1714170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF3BA3-1CB8-4E72-A2A3-CE863C9FB3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="4030" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="3700" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
     <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25） -8</t>
+    <t>CLANNAD AFTER STORY （25） -10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF3BA3-1CB8-4E72-A2A3-CE863C9FB3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90D19F-183B-4818-9DB3-CB63231B2F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="3700" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金牌得主  -12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青之箱 -25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,7 +289,11 @@
     <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25） -10</t>
+    <t>CLANNAD AFTER STORY （25） -12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌得主  -13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -812,12 +812,12 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -828,10 +828,10 @@
         <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -845,7 +845,7 @@
         <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -875,17 +875,17 @@
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -919,12 +919,12 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>56</v>
+      <c r="A27" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90D19F-183B-4818-9DB3-CB63231B2F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB92EA8-B863-48AD-A53B-39E5F56CA1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>凉宫</t>
   </si>
@@ -108,10 +108,6 @@
   </si>
   <si>
     <t>灵能百分百（30+）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLANNAD（22+22）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,7 +663,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -696,9 +692,6 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
         <v>3</v>
       </c>
@@ -706,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -720,12 +713,12 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -734,18 +727,18 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
@@ -753,10 +746,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -770,10 +763,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -784,40 +777,40 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -825,13 +818,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -839,13 +832,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -853,39 +846,39 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -898,7 +891,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -906,58 +899,58 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB92EA8-B863-48AD-A53B-39E5F56CA1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F61E21A-7630-45EF-A0A0-9E170C3B1484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>凉宫</t>
   </si>
@@ -285,11 +285,15 @@
     <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25） -12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金牌得主  -13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darling in the FranXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD AFTER STORY （25） -15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +667,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -857,6 +861,9 @@
       <c r="J16" t="s">
         <v>63</v>
       </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -878,7 +885,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -917,7 +924,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F61E21A-7630-45EF-A0A0-9E170C3B1484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B776796-AC98-4B80-B933-48526C0D41EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="3700" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>凉宫</t>
   </si>
@@ -293,7 +293,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25） -15</t>
+    <t>平家物语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD AFTER STORY （25） -22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -733,6 +741,9 @@
       <c r="J6" t="s">
         <v>24</v>
       </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -874,6 +885,9 @@
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
       <c r="J18" t="s">
         <v>64</v>
       </c>
@@ -885,7 +899,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B776796-AC98-4B80-B933-48526C0D41EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E18133-554D-4263-832D-EB384196354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="3700" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>凉宫</t>
   </si>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四叠半神话大系（11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>永生之酒（13+3）-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,7 +297,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLANNAD AFTER STORY （25） -22</t>
+    <t>CLANNAD AFTER STORY （25） -23   | 25-04-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣告黎明的露之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春宵苦短，少女前进吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叠半神话大系（12）-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
     <col min="2" max="2" width="39.4140625" customWidth="1"/>
     <col min="3" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
@@ -711,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -725,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -742,7 +750,7 @@
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -753,18 +761,21 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -774,6 +785,9 @@
       </c>
       <c r="J8" t="s">
         <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -781,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -791,11 +805,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -805,172 +819,178 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
+      <c r="A12" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
       <c r="L12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L13" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="M13">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H14" t="s">
         <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M14">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
         <v>63</v>
       </c>
-      <c r="L16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
+      <c r="A22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H23" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
     </row>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E18133-554D-4263-832D-EB384196354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF436827-843C-46E5-B4DB-B6810100FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>凉宫</t>
   </si>
@@ -309,7 +309,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四叠半神话大系（12）-2</t>
+    <t>angel beats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叠半神话大系（12）-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +687,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -841,6 +845,9 @@
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>66</v>
       </c>
@@ -850,7 +857,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF436827-843C-46E5-B4DB-B6810100FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544E465-88F6-4C91-9D30-1EACA439F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>凉宫</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>四叠半神话大系（12）-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏日口袋 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉撒路 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -919,6 +931,9 @@
       <c r="H21" t="s">
         <v>10</v>
       </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -971,33 +986,43 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>31</v>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>34</v>
       </c>
     </row>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544E465-88F6-4C91-9D30-1EACA439F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F9993-3B27-4FBF-9B94-DC56C9067862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四叠半神话大系（12）-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏日口袋 - 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +322,10 @@
   </si>
   <si>
     <t>地狱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叠半神话大系（12）-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -932,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -988,12 +988,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F9993-3B27-4FBF-9B94-DC56C9067862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49CD23D-7384-4353-BCDC-E5E42AE97EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>凉宫</t>
   </si>
@@ -313,19 +313,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏日口袋 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉撒路 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地狱乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四叠半神话大系（12）-4</t>
+    <t>火之鸟 伊甸之花</t>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叠半神话大系（12）-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAIBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄想代理人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -869,7 +884,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -932,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -950,6 +965,9 @@
       <c r="H23" t="s">
         <v>39</v>
       </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -971,6 +989,16 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
@@ -988,12 +1016,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49CD23D-7384-4353-BCDC-E5E42AE97EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C2C11E-0A0C-4FEB-969B-5CFDBEEE01B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>凉宫</t>
   </si>
@@ -320,10 +320,6 @@
     <t>火之鸟 伊甸之花</t>
   </si>
   <si>
-    <t>（周日）拉撒路 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周二）机动战士高达 GQuuuuuuX  -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,14 @@
   </si>
   <si>
     <t>妄想代理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAIBA（11） - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -884,7 +888,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -900,6 +904,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="L15" t="s">
         <v>60</v>
       </c>
@@ -991,12 +998,12 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1016,17 +1023,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C2C11E-0A0C-4FEB-969B-5CFDBEEE01B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA234CF-2E41-4442-AEFE-3F47E52C3D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>凉宫</t>
   </si>
@@ -324,14 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周一）夏日口袋 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四叠半神话大系（12）-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KAIBA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +337,18 @@
   </si>
   <si>
     <t>（周日）拉撒路 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叠半神话大系（12）-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 - 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -857,6 +861,9 @@
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -888,7 +895,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -905,7 +912,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -998,12 +1005,12 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1023,12 +1030,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA234CF-2E41-4442-AEFE-3F47E52C3D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FC715-F51D-49F2-86FD-055CEE7FDBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,15 +340,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四叠半神话大系（12）-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（周一）夏日口袋 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叠半神话大系（11）-11  | 25-04-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -894,8 +894,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>82</v>
+      <c r="A14" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FC715-F51D-49F2-86FD-055CEE7FDBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D5FB0-D693-44EF-921A-7A8DA2E6D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KAIBA（11） - 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周日）拉撒路 - 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +345,10 @@
   </si>
   <si>
     <t>四叠半神话大系（11）-11  | 25-04-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAIBA（11） - 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +722,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -1030,12 +1030,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D5FB0-D693-44EF-921A-7A8DA2E6D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A494C0E-463A-4EE0-8992-38E227917C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KAIBA（11） - 5</t>
+    <t>KAIBA（11） - 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A494C0E-463A-4EE0-8992-38E227917C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089ED0EF-8872-46E5-A8F5-606F1A0ED768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,10 +320,6 @@
     <t>火之鸟 伊甸之花</t>
   </si>
   <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KAIBA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,23 +328,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周一）夏日口袋 - 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四叠半神话大系（11）-11  | 25-04-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KAIBA（11） - 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -1005,12 +1005,12 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1030,17 +1030,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089ED0EF-8872-46E5-A8F5-606F1A0ED768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE0AB7D-16C8-4C2B-B7DF-0142914B0AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>凉宫</t>
   </si>
@@ -271,84 +271,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌得主  -13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darling in the FranXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平家物语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLANNAD AFTER STORY （25） -23   | 25-04-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣告黎明的露之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春宵苦短，少女前进吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angel beats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火之鸟 伊甸之花</t>
+  </si>
+  <si>
+    <t>KAIBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄想代理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叠半神话大系（11）-11  | 25-04-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAIBA（11） -12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东之伊甸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>光死去的夏天</t>
-  </si>
-  <si>
-    <t>新番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青春猪头少年不会梦到圣诞服女郎(大学生篇)</t>
-  </si>
-  <si>
-    <t>金牌得主  -13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Darling in the FranXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平家物语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLANNAD AFTER STORY （25） -23   | 25-04-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣告黎明的露之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春宵苦短，少女前进吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angel beats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火之鸟 伊甸之花</t>
-  </si>
-  <si>
-    <t>KAIBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妄想代理人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四叠半神话大系（11）-11  | 25-04-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAIBA（11） - 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）拉撒路 - 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周一）夏日口袋 -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （22） - 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,12 +396,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -430,13 +434,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -719,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -789,7 +790,7 @@
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -806,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -826,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -862,7 +863,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -876,18 +877,18 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -895,7 +896,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -903,16 +904,16 @@
       <c r="J14" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>64</v>
+      <c r="L14" t="s">
+        <v>85</v>
       </c>
       <c r="M14">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>81</v>
+      <c r="A15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -929,7 +930,7 @@
         <v>62</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -942,7 +943,7 @@
         <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
         <v>63</v>
@@ -961,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -980,7 +981,7 @@
         <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -993,83 +994,91 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H27" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H29" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
+      <c r="H31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>84</v>
+      <c r="A34" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>34</v>
       </c>
     </row>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE0AB7D-16C8-4C2B-B7DF-0142914B0AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531ABFB-1FCC-4025-94CF-F34C10C4B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周一）夏日口袋 -3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,7 +354,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （22） - 1</t>
+    <t>（周二）机动战士高达 GQuuuuuuX  -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （22） - 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -905,7 +905,7 @@
         <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -1024,7 +1024,7 @@
         <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531ABFB-1FCC-4025-94CF-F34C10C4B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DBF9B7-A00A-410A-9A2E-898AD485872D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,7 +358,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （22） - 7</t>
+    <t>三月的狮子 （22） - 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +723,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DBF9B7-A00A-410A-9A2E-898AD485872D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190FEE8F-74FC-4D98-9C12-29ED3A42F997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>凉宫</t>
   </si>
@@ -358,7 +358,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （22） - 9</t>
+    <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （22） - 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -915,6 +919,9 @@
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
       <c r="L15" t="s">
         <v>60</v>
       </c>
@@ -996,7 +1003,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190FEE8F-74FC-4D98-9C12-29ED3A42F997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264D0791-B92D-4390-B2C7-99033CFF0BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周一）夏日口袋 -3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,7 +358,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （22） - 10</t>
+    <t>（周日）拉撒路 - 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （22） - 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +892,7 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -909,7 +909,7 @@
         <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -917,10 +917,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -1031,7 +1031,7 @@
         <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1046,17 +1046,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264D0791-B92D-4390-B2C7-99033CFF0BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C714A0B-D690-4DF1-932D-9DB0D6CD3F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mono</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,6 +359,10 @@
   </si>
   <si>
     <t>三月的狮子 （22） - 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +727,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -920,7 +920,7 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1051,12 +1051,12 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C714A0B-D690-4DF1-932D-9DB0D6CD3F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02BB8C-37D6-40B2-B5FE-A68F67CF9180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>凉宫</t>
   </si>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周一）夏日口袋 -3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KAIBA（11） -12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,15 +350,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三月的狮子 （22） - 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -4</t>
+    <t>猫妖小杏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +896,7 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -909,7 +913,7 @@
         <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -917,10 +921,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -1003,7 +1007,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1031,60 +1035,63 @@
         <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02BB8C-37D6-40B2-B5FE-A68F67CF9180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCDD6A-DD31-4C4F-8AE6-71C1309F8D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （22） - 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫妖小杏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,6 +363,10 @@
   </si>
   <si>
     <t>（周二）机动战士高达 GQuuuuuuX  -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （22） - 14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +731,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1048,22 +1048,22 @@
         <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCDD6A-DD31-4C4F-8AE6-71C1309F8D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA2D12E-E427-44DB-9291-C93A38645E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2530" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="2050" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周一）夏日口袋 -5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,7 +362,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （22） - 14</t>
+    <t>三月的狮子 （22） - 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +731,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1053,17 +1053,17 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA2D12E-E427-44DB-9291-C93A38645E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14291A69-2A99-4229-A6B0-98C4BC6E865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="2050" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,15 +358,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三月的狮子 （22） - 16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（周日）拉撒路 - 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +731,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1058,12 +1058,12 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14291A69-2A99-4229-A6B0-98C4BC6E865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D109C7C-5D3E-4F77-A3A4-1197C88A0054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2050" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,19 +354,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周一）夏日口袋 -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三月的狮子 （22） - 16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -6</t>
+    <t>（周二）机动战士高达 GQuuuuuuX  -7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +731,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D109C7C-5D3E-4F77-A3A4-1197C88A0054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFBEE8E-E2BB-486A-A828-95BFA9F48B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,11 +362,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周一）夏日口袋 -6</t>
+    <t>（周日）拉撒路 - 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFBEE8E-E2BB-486A-A828-95BFA9F48B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A41F008-7794-4071-81EC-01AAA1621072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2860" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,19 +354,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （22） - 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周日）拉撒路 - 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（周一）夏日口袋 -8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （22） - 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +731,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1053,17 +1053,17 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A41F008-7794-4071-81EC-01AAA1621072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39547564-1F93-4983-A29F-33D405B85914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2860" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,15 +358,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周一）夏日口袋 -8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三月的狮子 （22） - 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +731,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39547564-1F93-4983-A29F-33D405B85914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3993E2B-25BE-4BB9-96F3-F89B99566D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,19 +354,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三月的狮子 （22） - 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周一）夏日口袋 -9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周二）机动战士高达 GQuuuuuuX  -9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三月的狮子 （44） - 22 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1058,12 +1058,12 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3993E2B-25BE-4BB9-96F3-F89B99566D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3D660-0A25-480E-84D8-67B27E00251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>凉宫</t>
   </si>
@@ -354,19 +354,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周二）机动战士高达 GQuuuuuuX  -9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三月的狮子 （44） - 22 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周一）夏日口袋 -10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）拉撒路 - 10</t>
+    <t>（周日）拉撒路 - 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy Sugar Life</t>
+  </si>
+  <si>
+    <t>（周二）机动战士高达 GQuuuuuuX  -12  | 25-06-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （44） - 34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -895,6 +898,9 @@
       <c r="C13" t="s">
         <v>72</v>
       </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
       <c r="L13" t="s">
         <v>81</v>
       </c>
@@ -1007,7 +1013,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1053,17 +1059,17 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3D660-0A25-480E-84D8-67B27E00251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90281B13-C055-4E1A-A5B0-352889BC8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4630" yWindow="2960" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>凉宫</t>
   </si>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3月的狮子（22+22）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物语（80+）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,30 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）全修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周二）群花绽放，彷如修罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周五）药屋少女的呢喃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周五）欢迎来到日本精灵小姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）坂本日常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周三）天久鹰央的推理病历表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星际牛仔（26）-26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,6 +342,41 @@
   </si>
   <si>
     <t>三月的狮子 （44） - 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春猪头少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧蓝之海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆大党</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city the animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻音少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉子市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别对映像研出手！</t>
+  </si>
+  <si>
+    <t>无职转生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉子市场 （12） -3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -770,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -778,78 +785,75 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -857,52 +861,58 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -910,16 +920,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -927,179 +937,188 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90281B13-C055-4E1A-A5B0-352889BC8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE28CB5-DA3E-4FB9-B9B2-9A8416E13CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4630" yWindow="2960" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,14 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周一）夏日口袋 -10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）拉撒路 - 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Happy Sugar Life</t>
   </si>
   <si>
@@ -353,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胆大党</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>city the animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +365,18 @@
   </si>
   <si>
     <t>玉子市场 （12） -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 13 | 25-07-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周四）胆大党  -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -884,7 +884,7 @@
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -909,7 +909,7 @@
         <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
         <v>74</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
         <v>50</v>
@@ -979,7 +979,7 @@
         <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
         <v>68</v>
@@ -1078,32 +1078,32 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>79</v>
+      <c r="A36" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>85</v>
+      <c r="A41" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE28CB5-DA3E-4FB9-B9B2-9A8416E13CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F7215-9EFA-4455-8996-413144F83F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>凉宫</t>
   </si>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四叠半神话大系（11）-11  | 25-04-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,18 +333,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青春猪头少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碧蓝之海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>city the animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轻音少女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +365,30 @@
   </si>
   <si>
     <t>（周四）胆大党  -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）青春猪头少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周三）吊带袜天使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）city the animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）章鱼噼的原罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）光死去的夏天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）熏香花朵凛然绽放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -878,13 +890,13 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -892,7 +904,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -909,10 +921,10 @@
         <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -920,7 +932,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -929,7 +944,7 @@
         <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -937,10 +952,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
         <v>53</v>
@@ -951,7 +966,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>50</v>
@@ -964,13 +982,16 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
@@ -979,17 +1000,28 @@
         <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -999,16 +1031,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -1018,107 +1047,86 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
+      <c r="A24" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="H30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
       <c r="H31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
+      <c r="A32" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
+      <c r="A33" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
+      <c r="A34" t="s">
+        <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>90</v>
+      <c r="A35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>89</v>
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>28</v>
+      <c r="A37" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F7215-9EFA-4455-8996-413144F83F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AD3273-2446-438D-A9C8-147E9A4D65E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="2870" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>凉宫</t>
   </si>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三月的狮子 （44） - 34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碧蓝之海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,27 +364,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周六）青春猪头少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周三）吊带袜天使</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）city the animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）章鱼噼的原罪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周六）光死去的夏天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（周六）熏香花朵凛然绽放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）章鱼噼的原罪 -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更衣人偶坠入爱河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）青春笨蛋少年不做圣诞服女郎的梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）city the animation -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （44） - 35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -896,7 +900,7 @@
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -904,7 +908,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -935,7 +939,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -966,7 +970,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -985,13 +989,16 @@
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
@@ -1000,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1061,12 +1068,12 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1084,7 +1091,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
         <v>69</v>
@@ -1092,41 +1099,41 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>89</v>
+      <c r="A33" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A34" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>91</v>
+      <c r="A35" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AD3273-2446-438D-A9C8-147E9A4D65E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F704F9ED-4A76-4E0C-8AD5-FE2123890083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="2870" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>凉宫</t>
   </si>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自新世界（25）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>犬王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,22 +344,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玉子市场 （12） -3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周日）拉撒路 - 13 | 25-07-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周一）夏日口袋 -13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周四）胆大党  -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周三）吊带袜天使</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +377,30 @@
   </si>
   <si>
     <t>三月的狮子 （44） - 35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）琉璃的宝石（13）  -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉子市场 （12） -10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊带袜天使（） -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周四）胆大党  -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自新世界（25）-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -793,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -807,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -821,7 +829,7 @@
         <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -832,21 +840,21 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -858,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -866,7 +874,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -877,10 +885,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -891,44 +899,44 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -936,19 +944,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -956,13 +964,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -970,19 +978,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -990,37 +998,37 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1028,13 +1036,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1046,94 +1054,102 @@
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F704F9ED-4A76-4E0C-8AD5-FE2123890083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8729D09F-A595-4B4D-82BE-8BA4D4A290D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="2870" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3200" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自新世界（25）-10</t>
+    <t>来自新世界（25）-25 | 2025-07-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +765,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1027,7 @@
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H20" t="s">

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8729D09F-A595-4B4D-82BE-8BA4D4A290D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC9F013-A29D-4FD7-B609-E8668F32A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3200" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周三）吊带袜天使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周六）光死去的夏天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,30 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周六）青春笨蛋少年不做圣诞服女郎的梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）city the animation -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三月的狮子 （44） - 35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）琉璃的宝石（13）  -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉子市场 （12） -10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周一）夏日口袋 -14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吊带袜天使（） -2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +373,34 @@
   </si>
   <si>
     <t>来自新世界（25）-25 | 2025-07-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉子市场 （12） -12  | 2025-07-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）青春笨蛋少年不做圣诞服女郎的梦  -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）city the animation -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （44） - 38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）琉璃的宝石（13）  -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周三）吊带袜天使2  -2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +947,7 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -998,15 +998,15 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>93</v>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1028,7 +1028,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1055,7 +1055,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
         <v>31</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1101,8 +1101,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>84</v>
+      <c r="A31" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H31" t="s">
         <v>68</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
         <v>71</v>
@@ -1118,12 +1118,12 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
         <v>75</v>
@@ -1131,12 +1131,12 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
         <v>78</v>
@@ -1144,12 +1144,12 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC9F013-A29D-4FD7-B609-E8668F32A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D2296-FD90-4ED6-863E-D18C585198CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3200" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吊带袜天使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暗芝居</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>散华礼弥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天才麻将少女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,14 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周六）熏香花朵凛然绽放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）章鱼噼的原罪 -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更衣人偶坠入爱河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周四）胆大党  -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>来自新世界（25）-25 | 2025-07-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周日）city the animation -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三月的狮子 （44） - 38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +377,30 @@
   </si>
   <si>
     <t>（周三）吊带袜天使2  -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散华礼弥  -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周四）胆大党  -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）章鱼噼的原罪 -4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周五）拔作岛  -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）city the animation -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）熏香花朵凛然绽放  -2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
         <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -840,21 +840,21 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -866,15 +866,15 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -885,58 +885,61 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -944,19 +947,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -964,13 +961,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -978,19 +975,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -998,37 +995,37 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1036,13 +1033,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1055,101 +1052,106 @@
         <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>85</v>
+      <c r="A36" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>84</v>
+      <c r="A37" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D2296-FD90-4ED6-863E-D18C585198CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FCA14-636C-4A75-9948-99114F31ABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3170" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>凉宫</t>
   </si>
@@ -329,78 +329,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无职转生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）拉撒路 - 13 | 25-07-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更衣人偶坠入爱河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊带袜天使（） -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自新世界（25）-25 | 2025-07-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉子市场 （12） -12  | 2025-07-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月的狮子 （44） - 38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周一）夏日口袋 -15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）青春笨蛋少年不做圣诞服女郎的梦  -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散华礼弥 （15） -15  | 2025-07-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>别对映像研出手！</t>
-  </si>
-  <si>
-    <t>无职转生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）拉撒路 - 13 | 25-07-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）光死去的夏天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更衣人偶坠入爱河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊带袜天使（） -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自新世界（25）-25 | 2025-07-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉子市场 （12） -12  | 2025-07-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）青春笨蛋少年不做圣诞服女郎的梦  -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三月的狮子 （44） - 38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周一）夏日口袋 -15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）琉璃的宝石（13）  -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周三）吊带袜天使2  -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散华礼弥  -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周四）胆大党  -3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）章鱼噼的原罪 -4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周五）拔作岛  -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）city the animation -3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）熏香花朵凛然绽放  -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更衣人偶坠入爱河 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）熏香花朵凛然绽放  -4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）city the animation -4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）琉璃的宝石（13）  -4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）光死去的夏天 -4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周三）吊带袜天使2  - 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）章鱼噼的原罪  -6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周四）胆大党2  -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢之炼金术师 （68） -25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周五）拔作岛  -3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -916,7 +925,7 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -929,8 +938,8 @@
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>92</v>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -950,7 +959,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
@@ -975,7 +984,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -995,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1003,7 +1012,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -1025,7 +1034,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1052,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -1070,18 +1079,24 @@
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="H25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1099,7 +1114,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
         <v>66</v>
@@ -1107,7 +1122,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
         <v>69</v>
@@ -1119,8 +1134,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>94</v>
+      <c r="A34" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H34" t="s">
         <v>73</v>
@@ -1128,12 +1143,12 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s">
         <v>76</v>
@@ -1141,17 +1156,17 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/动漫list.xlsx
+++ b/动漫list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FCA14-636C-4A75-9948-99114F31ABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD173C3-1E00-482D-BEF8-E6CBD36D1DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3170" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="5120" windowWidth="19200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>凉宫</t>
   </si>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地狱少女（26+26+26+12） -26-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胆大党 -12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,18 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更衣人偶坠入爱河 -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）熏香花朵凛然绽放  -4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周日）city the animation -4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（周日）琉璃的宝石（13）  -4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,23 +377,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（周三）吊带袜天使2  - 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周六）章鱼噼的原罪  -6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周四）胆大党2  -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢之炼金术师 （68） -25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（周五）拔作岛  -3</t>
+    <t>摇曳露营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢之炼金术师 （68） -65    | 2025-08-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周三）吊带袜天使2  - 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周日）city the animation -8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周五）拔作岛  -6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）熏香花朵凛然绽放  -9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周四）胆大党2  -9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">凉宫春日的消失 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉宫春日的忧郁 2009（28）-26 | 2025-08-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（周六）章鱼噼的原罪  -6 | 2025-08-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更衣人偶坠入爱河 -12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱少女（26+26+26+12） -26-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女与使魔</t>
+  </si>
+  <si>
+    <t>我怎么可能成为你的恋人 | 2025-09-24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -810,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -824,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -838,7 +857,7 @@
         <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -849,21 +868,21 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -875,15 +894,15 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -894,61 +913,61 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -956,13 +975,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -970,13 +989,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -984,57 +1003,63 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1042,13 +1067,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1058,66 +1086,74 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1125,52 +1161,53 @@
         <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>